--- a/models2/excels2/TSBN.xlsx
+++ b/models2/excels2/TSBN.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models2\excels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314B0FE-282D-4A70-B924-31F2E7B8EC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93594F91-7E4F-4063-ACA8-9D6DC8BD3FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>dcm_name</t>
   </si>
@@ -34,772 +34,838 @@
     <t>label</t>
   </si>
   <si>
+    <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
+  </si>
+  <si>
+    <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
+  </si>
+  <si>
+    <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
+  </si>
+  <si>
     <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
   </si>
   <si>
-    <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
+    <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00058-YYL-201903141511-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
+  </si>
+  <si>
+    <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
+  </si>
+  <si>
+    <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
+  </si>
+  <si>
+    <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
+  </si>
+  <si>
+    <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00059-ZHL-201903141534-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
+  </si>
+  <si>
+    <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00115-YXF-201807091046-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
+  </si>
+  <si>
+    <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
   </si>
   <si>
     <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
   </si>
   <si>
-    <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00115-YXF-201807091046-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
-  </si>
-  <si>
     <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
   </si>
   <si>
-    <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
+    <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
+  </si>
+  <si>
+    <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
+  </si>
+  <si>
+    <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
+  </si>
+  <si>
+    <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
+  </si>
+  <si>
+    <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
+  </si>
+  <si>
+    <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
   </si>
   <si>
     <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
   </si>
   <si>
-    <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00059-ZHL-201903141534-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
+    <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
   </si>
   <si>
     <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
   </si>
   <si>
-    <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
-  </si>
-  <si>
-    <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
-  </si>
-  <si>
-    <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
-  </si>
-  <si>
     <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00058-YYL-201903141511-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
-  </si>
-  <si>
-    <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
-  </si>
-  <si>
-    <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1198,38 +1264,38 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="B2">
-        <v>0.93434381484985352</v>
+        <v>7.7728273595312203E-8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>0.30631226301193237</v>
+        <v>1.3909084373153749E-7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="B4">
-        <v>7.6471650972962379E-3</v>
+        <v>1.411228538472642E-7</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1240,10 +1306,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>5.7672135531902313E-2</v>
+        <v>1.8969194570672701E-7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1254,10 +1320,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="B6">
-        <v>4.9881584942340851E-2</v>
+        <v>2.7111542522106902E-7</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1268,10 +1334,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="B7">
-        <v>0.23129324615001681</v>
+        <v>2.8305015575824649E-7</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1282,10 +1348,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>0.1237098425626755</v>
+        <v>3.219486472971766E-7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1296,10 +1362,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>1.201923005282879E-2</v>
+        <v>3.7536938179982831E-7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1310,10 +1376,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>0.11081840097904209</v>
+        <v>4.3054745901827118E-7</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1324,52 +1390,52 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>0.30561155080795288</v>
+        <v>5.7013511423065211E-7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B12">
-        <v>3.449707105755806E-2</v>
+        <v>6.3143244233287987E-7</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="B13">
-        <v>9.5650583505630493E-2</v>
+        <v>6.6171776325063547E-7</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="B14">
-        <v>1.436976995319128E-2</v>
+        <v>7.9612453873778577E-7</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1380,10 +1446,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.30640840530395508</v>
+        <v>8.6987876102284645E-7</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1394,10 +1460,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B16">
-        <v>5.221870169043541E-2</v>
+        <v>9.0671056796054472E-7</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1408,10 +1474,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="B17">
-        <v>0.26667967438697809</v>
+        <v>1.0950990372293749E-6</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1422,10 +1488,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="B18">
-        <v>0.43921712040901179</v>
+        <v>1.2063919712090861E-6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1436,10 +1502,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="B19">
-        <v>1.9285960122942921E-2</v>
+        <v>1.2344706874500839E-6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1450,66 +1516,66 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="B20">
-        <v>1.3373947702348231E-2</v>
+        <v>1.3517493471226769E-6</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B21">
-        <v>0.94999122619628906</v>
+        <v>1.3701443322133851E-6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B22">
-        <v>0.97719520330429077</v>
+        <v>1.3806508150082659E-6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B23">
-        <v>0.94047087430953979</v>
+        <v>1.5932417909425569E-6</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="B24">
-        <v>2.6171546429395679E-2</v>
+        <v>2.1801290586154209E-6</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1520,10 +1586,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="B25">
-        <v>0.14906162023544309</v>
+        <v>2.1986345473123951E-6</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1534,10 +1600,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0.1834244430065155</v>
+        <v>2.3624756977369539E-6</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1548,24 +1614,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="B27">
-        <v>0.44799166917800898</v>
+        <v>2.5411709430045448E-6</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="B28">
-        <v>4.4867038726806641E-2</v>
+        <v>2.5565309442754369E-6</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1576,10 +1642,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="B29">
-        <v>2.7995241805911061E-2</v>
+        <v>2.8024646780977491E-6</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1590,13 +1656,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="B30">
-        <v>0.77928668260574341</v>
+        <v>2.987258767461753E-6</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1604,24 +1670,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="B31">
-        <v>0.77539151906967163</v>
+        <v>3.097389026152086E-6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="B32">
-        <v>1.520557701587677E-2</v>
+        <v>3.1645847684558248E-6</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1632,10 +1698,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="B33">
-        <v>0.24855031073093409</v>
+        <v>3.597866907512071E-6</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1646,13 +1712,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="B34">
-        <v>0.71141952276229858</v>
+        <v>3.645214064817992E-6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1660,10 +1726,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="B35">
-        <v>0.19563327729701999</v>
+        <v>3.9692449718131684E-6</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1674,10 +1740,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="B36">
-        <v>9.8049148917198181E-2</v>
+        <v>4.0129248191078659E-6</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1688,10 +1754,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="B37">
-        <v>7.4274435639381409E-2</v>
+        <v>4.1406437958357864E-6</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1702,41 +1768,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>0.5978437066078186</v>
+        <v>4.1539919948263559E-6</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B39">
-        <v>0.1013471186161041</v>
+        <v>5.0415637815603986E-6</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>0.74020141363143921</v>
+        <v>5.5200316637638017E-6</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1744,10 +1810,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>1.530510280281305E-2</v>
+        <v>6.0021029639756307E-6</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1761,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>4.9516156315803528E-2</v>
+        <v>6.1192636167106676E-6</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1772,24 +1838,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B43">
-        <v>0.71381014585494995</v>
+        <v>6.1610435295733623E-6</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="B44">
-        <v>6.4783990383148193E-2</v>
+        <v>7.1051749728212599E-6</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1800,13 +1866,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="B45">
-        <v>0.617950439453125</v>
+        <v>7.1720546657161321E-6</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1814,24 +1880,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B46">
-        <v>0.9376106858253479</v>
+        <v>7.4425079219508916E-6</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="B47">
-        <v>4.9098365008831017E-2</v>
+        <v>7.7729318945785053E-6</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1842,27 +1908,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B48">
-        <v>0.94349503517150879</v>
+        <v>7.9700566857354715E-6</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>0.5889926552772522</v>
+        <v>8.1869247878785245E-6</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1870,38 +1936,38 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="B50">
-        <v>0.53831368684768677</v>
+        <v>8.3595896285260096E-6</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>0.50257784128189087</v>
+        <v>8.6610598373226821E-6</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="B52">
-        <v>3.981659933924675E-2</v>
+        <v>8.8715396486804821E-6</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1912,38 +1978,38 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>4.7128956764936447E-2</v>
+        <v>9.722069080453366E-6</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>0.46117874979972839</v>
+        <v>1.0243154065392449E-5</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>0.30619660019874573</v>
+        <v>1.0795310117828191E-5</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1954,10 +2020,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="B56">
-        <v>0.1285440772771835</v>
+        <v>1.131842054746812E-5</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1968,10 +2034,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>8.0520976334810257E-3</v>
+        <v>1.3087471415929031E-5</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1982,10 +2048,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>3.4141503274440772E-2</v>
+        <v>1.331175735685974E-5</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1996,38 +2062,38 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B59">
-        <v>0.91308331489562988</v>
+        <v>1.404955310135847E-5</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B60">
-        <v>0.9267546534538269</v>
+        <v>1.502393115515588E-5</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B61">
-        <v>5.4861335083842278E-3</v>
+        <v>1.5478704881388691E-5</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2038,24 +2104,24 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B62">
-        <v>4.6424899250268943E-2</v>
+        <v>1.6160001905518581E-5</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="B63">
-        <v>1.2118924409151081E-2</v>
+        <v>1.754530603648163E-5</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2066,13 +2132,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B64">
-        <v>0.51489526033401489</v>
+        <v>1.7625283362576741E-5</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2080,13 +2146,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>0.93324965238571167</v>
+        <v>1.8909939171862788E-5</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2094,27 +2160,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B66">
-        <v>0.60465461015701294</v>
+        <v>1.892798354674596E-5</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="B67">
-        <v>0.7132728099822998</v>
+        <v>1.899329254229087E-5</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2122,38 +2188,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B68">
-        <v>0.39164981245994568</v>
+        <v>1.9059774786001071E-5</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="B69">
-        <v>0.1370743066072464</v>
+        <v>2.0420260625542141E-5</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B70">
-        <v>5.6660287082195282E-2</v>
+        <v>2.2706517484039072E-5</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2164,10 +2230,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B71">
-        <v>0.1035878956317902</v>
+        <v>2.3162370780482892E-5</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2178,10 +2244,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B72">
-        <v>0.15354263782501221</v>
+        <v>2.3248589059221562E-5</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2192,55 +2258,55 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B73">
-        <v>0.64207321405410767</v>
+        <v>2.3432041416526769E-5</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B74">
-        <v>0.99311405420303345</v>
+        <v>2.39358105318388E-5</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>0.56038755178451538</v>
+        <v>2.6294801500625908E-5</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B76">
-        <v>0.54936158657073975</v>
+        <v>2.6825195163837631E-5</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2248,10 +2314,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="B77">
-        <v>5.8350462466478348E-2</v>
+        <v>2.695811417652294E-5</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2262,10 +2328,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>0.10010553151369091</v>
+        <v>2.799620415316895E-5</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2276,55 +2342,55 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B79">
-        <v>0.18921089172363281</v>
+        <v>2.9602480935864151E-5</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="B80">
-        <v>0.54920119047164917</v>
+        <v>3.0720733775524423E-5</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>0.16141702234745031</v>
+        <v>3.1296411179937422E-5</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="B82">
-        <v>0.99009644985198975</v>
+        <v>3.7838555726921193E-5</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2332,38 +2398,38 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B83">
-        <v>0.98915767669677734</v>
+        <v>3.9740894862916321E-5</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="B84">
-        <v>0.87971675395965576</v>
+        <v>4.2666993977036327E-5</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="B85">
-        <v>2.775666490197182E-2</v>
+        <v>4.4145897845737643E-5</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2374,10 +2440,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="B86">
-        <v>0.33568042516708368</v>
+        <v>4.7162178816506639E-5</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2388,10 +2454,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B87">
-        <v>3.0799532309174541E-2</v>
+        <v>5.0863920478150249E-5</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2402,24 +2468,24 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="B88">
-        <v>0.93910771608352661</v>
+        <v>5.1655362767633051E-5</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="B89">
-        <v>0.14369189739227289</v>
+        <v>5.2933239203412093E-5</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2430,13 +2496,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B90">
-        <v>0.9720759391784668</v>
+        <v>5.5709017033223063E-5</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2444,13 +2510,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.95410418510437012</v>
+        <v>5.6267537729581818E-5</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2458,10 +2524,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="B92">
-        <v>0.1143790856003761</v>
+        <v>5.7805078540695831E-5</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2472,10 +2538,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>7.2826072573661804E-2</v>
+        <v>5.8181580243399367E-5</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2486,24 +2552,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="B94">
-        <v>0.60690861940383911</v>
+        <v>5.8553225244395428E-5</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="B95">
-        <v>0.16959197819232941</v>
+        <v>5.919550676480867E-5</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2514,24 +2580,24 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B96">
-        <v>0.75453323125839233</v>
+        <v>6.0963375290157267E-5</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="B97">
-        <v>3.1233580783009529E-2</v>
+        <v>6.5824453486129642E-5</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2542,24 +2608,24 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="B98">
-        <v>0.46929642558097839</v>
+        <v>7.0595568104181439E-5</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="B99">
-        <v>4.3038935400545597E-3</v>
+        <v>7.148217991925776E-5</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2570,24 +2636,24 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B100">
-        <v>0.79271936416625977</v>
+        <v>8.2497717812657356E-5</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>1.978827640414238E-2</v>
+        <v>9.2956659500487149E-5</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2598,10 +2664,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="B102">
-        <v>9.5529360696673393E-3</v>
+        <v>9.9991615570615977E-5</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2612,55 +2678,55 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B103">
-        <v>0.14439100027084351</v>
+        <v>1.0405524517409499E-4</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="B104">
-        <v>0.62011569738388062</v>
+        <v>1.098085776902735E-4</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B105">
-        <v>0.54427027702331543</v>
+        <v>1.2986118963453919E-4</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B106">
-        <v>0.50520801544189453</v>
+        <v>1.3867659436073149E-4</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2668,24 +2734,24 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="B107">
-        <v>0.83022439479827881</v>
+        <v>1.4209962682798499E-4</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="B108">
-        <v>4.9467157572507858E-2</v>
+        <v>1.4800362987443799E-4</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2696,27 +2762,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="B109">
-        <v>0.62367773056030273</v>
+        <v>1.5671807341277599E-4</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B110">
-        <v>0.9165118932723999</v>
+        <v>1.702547597233206E-4</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2724,13 +2790,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B111">
-        <v>0.65104728937149048</v>
+        <v>1.9646830332931131E-4</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2738,13 +2804,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B112">
-        <v>0.78404420614242554</v>
+        <v>2.0395990577526391E-4</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2752,10 +2818,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B113">
-        <v>0.2337245047092438</v>
+        <v>2.0501785911619661E-4</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2766,10 +2832,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B114">
-        <v>1.7536064609885219E-2</v>
+        <v>2.244970528408885E-4</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2780,10 +2846,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="B115">
-        <v>7.0429176092147827E-2</v>
+        <v>2.325929963262752E-4</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2794,27 +2860,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="B116">
-        <v>0.81097739934921265</v>
+        <v>2.6305517531000078E-4</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B117">
-        <v>0.73467510938644409</v>
+        <v>2.6653404347598553E-4</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2822,10 +2888,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B118">
-        <v>2.9793465510010719E-3</v>
+        <v>2.7767466963268822E-4</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2836,13 +2902,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B119">
-        <v>0.71175968647003174</v>
+        <v>2.9075759812258179E-4</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2850,10 +2916,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="B120">
-        <v>0.34439733624458307</v>
+        <v>3.2835220918059349E-4</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2864,24 +2930,24 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="B121">
-        <v>0.1538300812244415</v>
+        <v>3.3266737591475248E-4</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B122">
-        <v>3.5283107310533517E-2</v>
+        <v>3.3403295674361289E-4</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2892,10 +2958,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B123">
-        <v>1.8668815493583679E-2</v>
+        <v>3.4154238528572017E-4</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2906,10 +2972,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B124">
-        <v>1.525678671896458E-2</v>
+        <v>3.4583365777507419E-4</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2920,10 +2986,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B125">
-        <v>2.7674434706568721E-2</v>
+        <v>3.4667900763452048E-4</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2934,24 +3000,24 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B126">
-        <v>7.245971355587244E-3</v>
+        <v>4.0745097794570029E-4</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B127">
-        <v>1.5291190706193451E-2</v>
+        <v>4.3978047324344521E-4</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2962,24 +3028,24 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B128">
-        <v>5.1178533583879471E-2</v>
+        <v>4.5621281606145198E-4</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="B129">
-        <v>9.6342995762825012E-2</v>
+        <v>4.6727451262995601E-4</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2990,52 +3056,52 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B130">
-        <v>0.64425563812255859</v>
+        <v>4.680457641370595E-4</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B131">
-        <v>9.5089755952358246E-2</v>
+        <v>4.9122102791443467E-4</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="B132">
-        <v>0.96258372068405151</v>
+        <v>5.0349009688943624E-4</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B133">
-        <v>6.7403212189674377E-2</v>
+        <v>6.1451236251741648E-4</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3046,10 +3112,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="B134">
-        <v>0.39230605959892267</v>
+        <v>8.5997424321249127E-4</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3060,10 +3126,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="B135">
-        <v>0.24685283005237579</v>
+        <v>8.9118746109306812E-4</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3074,10 +3140,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="B136">
-        <v>0.2209157198667526</v>
+        <v>9.6477917395532131E-4</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3088,10 +3154,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B137">
-        <v>9.6805602312088013E-2</v>
+        <v>1.214688294567168E-3</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3102,24 +3168,24 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B138">
-        <v>3.8058876991271973E-2</v>
+        <v>1.386438147164881E-3</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B139">
-        <v>0.13022567331790921</v>
+        <v>1.6445950604975219E-3</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3130,10 +3196,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="B140">
-        <v>8.1062959507107735E-3</v>
+        <v>1.9721761345863338E-3</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3144,52 +3210,52 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B141">
-        <v>0.41014319658279419</v>
+        <v>2.5124407839030032E-3</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="B142">
-        <v>0.8194580078125</v>
+        <v>2.653566654771566E-3</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="B143">
-        <v>0.65975642204284668</v>
+        <v>2.7699233032763E-3</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="B144">
-        <v>0.39227721095085138</v>
+        <v>2.8600294608622789E-3</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3200,10 +3266,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="B145">
-        <v>0.19066579639911649</v>
+        <v>3.087175777181983E-3</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3214,10 +3280,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="B146">
-        <v>9.9200606346130371E-3</v>
+        <v>3.288573352620006E-3</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3228,10 +3294,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="B147">
-        <v>3.0629713088273999E-2</v>
+        <v>3.587474580854177E-3</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3242,10 +3308,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>2.902800589799881E-2</v>
+        <v>3.806359833106399E-3</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3256,24 +3322,24 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>0.57957285642623901</v>
+        <v>3.8684499450027938E-3</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B150">
-        <v>1.476572826504707E-2</v>
+        <v>4.3050497770309448E-3</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3284,24 +3350,24 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="B151">
-        <v>0.92201310396194458</v>
+        <v>4.6908259391784668E-3</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B152">
-        <v>1.2448392808437349E-2</v>
+        <v>5.2958829328417778E-3</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3312,10 +3378,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B153">
-        <v>5.9824671596288681E-2</v>
+        <v>5.4603437893092632E-3</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3326,10 +3392,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B154">
-        <v>0.1835106164216995</v>
+        <v>5.8757346123456946E-3</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3340,10 +3406,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B155">
-        <v>0.13074333965778351</v>
+        <v>6.4571877010166654E-3</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3354,10 +3420,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="B156">
-        <v>1.80523507297039E-2</v>
+        <v>6.6347243264317513E-3</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3368,27 +3434,27 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="B157">
-        <v>6.1324264854192727E-2</v>
+        <v>6.7073027603328228E-3</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="B158">
-        <v>0.96445024013519287</v>
+        <v>7.7154003083705902E-3</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3396,24 +3462,24 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B159">
-        <v>0.97059053182601929</v>
+        <v>8.5785072296857834E-3</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B160">
-        <v>6.0942325741052628E-2</v>
+        <v>9.0372171252965927E-3</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3424,10 +3490,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="B161">
-        <v>1.867256872355938E-2</v>
+        <v>1.0286000557243821E-2</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3438,13 +3504,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B162">
-        <v>0.81263017654418945</v>
+        <v>1.0432053357362751E-2</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3452,10 +3518,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="B163">
-        <v>0.11122409254312519</v>
+        <v>1.0448369197547439E-2</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3466,80 +3532,80 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="B164">
-        <v>0.82491850852966309</v>
+        <v>1.0688392445445061E-2</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B165">
-        <v>0.86727768182754517</v>
+        <v>1.2238370254635811E-2</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="B166">
-        <v>0.20889486372470861</v>
+        <v>1.257967669516802E-2</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B167">
-        <v>0.81261599063873291</v>
+        <v>1.305485144257545E-2</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="B168">
-        <v>0.84526169300079346</v>
+        <v>1.3182614929974081E-2</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="B169">
-        <v>0.27390328049659729</v>
+        <v>1.9260141998529431E-2</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3550,13 +3616,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B170">
-        <v>0.86625313758850098</v>
+        <v>2.0053984597325328E-2</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -3564,41 +3630,41 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="B171">
-        <v>4.4020175933837891E-2</v>
+        <v>2.1502602845430371E-2</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B172">
-        <v>3.4212712198495858E-2</v>
+        <v>2.5150978937745091E-2</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B173">
-        <v>0.89704608917236328</v>
+        <v>2.6754045858979229E-2</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -3606,24 +3672,24 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="B174">
-        <v>0.96728968620300293</v>
+        <v>2.783098258078098E-2</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B175">
-        <v>8.1973165273666382E-2</v>
+        <v>2.857400476932526E-2</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3634,13 +3700,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="B176">
-        <v>0.72066658735275269</v>
+        <v>2.951341308653355E-2</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -3648,10 +3714,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="B177">
-        <v>3.0407160520553589E-2</v>
+        <v>3.3082179725170142E-2</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3662,69 +3728,69 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="B178">
-        <v>0.92614966630935669</v>
+        <v>3.9248902350664139E-2</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B179">
-        <v>8.2505151629447937E-2</v>
+        <v>0.54589730128645897</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B180">
-        <v>2.121693454682827E-2</v>
+        <v>4.8398040235042572E-2</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B181">
-        <v>0.85271596908569336</v>
+        <v>5.0087101757526398E-2</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B182">
-        <v>0.8221016526222229</v>
+        <v>5.0894502550363541E-2</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3732,13 +3798,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B183">
-        <v>0.66926193237304688</v>
+        <v>6.8117864429950714E-2</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -3746,24 +3812,24 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="B184">
-        <v>0.33288410305976868</v>
+        <v>7.0573024451732635E-2</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B185">
-        <v>1.5260604210197931E-2</v>
+        <v>7.2960905730724335E-2</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3774,10 +3840,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B186">
-        <v>3.2252702862024307E-2</v>
+        <v>7.9680636525154114E-2</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3788,10 +3854,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="B187">
-        <v>4.0696814656257629E-2</v>
+        <v>8.877003937959671E-2</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3802,38 +3868,38 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="B188">
-        <v>0.33835557103157038</v>
+        <v>9.5050565898418427E-2</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="B189">
-        <v>0.87675422430038452</v>
+        <v>9.7062453627586365E-2</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B190">
-        <v>0.32341483235359192</v>
+        <v>0.1336842626333237</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3844,10 +3910,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="B191">
-        <v>2.695035561919212E-2</v>
+        <v>0.13749545812606809</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3858,27 +3924,27 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B192">
-        <v>0.73171401023864746</v>
+        <v>0.1643399000167847</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="B193">
-        <v>0.57945078611373901</v>
+        <v>0.17774653434753421</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3886,10 +3952,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B194">
-        <v>3.7986915558576577E-2</v>
+        <v>0.18147687613964081</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3900,10 +3966,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="B195">
-        <v>4.2930886149406433E-2</v>
+        <v>0.21155320107936859</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3914,10 +3980,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B196">
-        <v>0.2111786752939224</v>
+        <v>0.21353952586650851</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3928,10 +3994,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="B197">
-        <v>6.6638034768402576E-3</v>
+        <v>0.27603790163993841</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3942,27 +4008,27 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="B198">
-        <v>0.15747262537479401</v>
+        <v>0.28098103404045099</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B199">
-        <v>0.61176657676696777</v>
+        <v>0.30958816409111017</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3970,24 +4036,24 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B200">
-        <v>5.2874989807605743E-2</v>
+        <v>0.33063375949859619</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B201">
-        <v>2.5395708158612251E-2</v>
+        <v>0.34642952680587769</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3998,10 +4064,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B202">
-        <v>1.8352573737502102E-2</v>
+        <v>0.47272753715515142</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4012,27 +4078,27 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="B203">
-        <v>0.74106460809707642</v>
+        <v>0.54878479242324829</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B204">
-        <v>0.1752855330705643</v>
+        <v>0.57108265161514282</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4040,13 +4106,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B205">
-        <v>0.18769574165344241</v>
+        <v>0.61182528734207153</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -4054,10 +4120,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B206">
-        <v>0.77359676361083984</v>
+        <v>0.63631057739257813</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4068,27 +4134,27 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B207">
-        <v>1.095465198159218E-2</v>
+        <v>0.78492176532745361</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="B208">
-        <v>2.389080822467804E-2</v>
+        <v>0.80552256107330322</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -4096,13 +4162,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="B209">
-        <v>4.6119522303342819E-2</v>
+        <v>0.82319653034210205</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -4110,27 +4176,27 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="B210">
-        <v>0.32370021939277649</v>
+        <v>0.82590419054031372</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B211">
-        <v>4.3191045522689819E-2</v>
+        <v>0.83270806074142456</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -4138,13 +4204,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B212">
-        <v>0.13524897396564481</v>
+        <v>0.84530037641525269</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -4152,83 +4218,83 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="B213">
-        <v>0.77810072898864746</v>
+        <v>0.86814141273498535</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B214">
-        <v>0.90273326635360718</v>
+        <v>0.87900161743164063</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="B215">
-        <v>0.20338958501815799</v>
+        <v>0.88918042182922363</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="B216">
-        <v>0.68082112073898315</v>
+        <v>0.89889639616012573</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="B217">
-        <v>0.43940368294715881</v>
+        <v>0.40396022796630898</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="B218">
-        <v>0.2443949431180954</v>
+        <v>0.91090530157089233</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4236,13 +4302,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B219">
-        <v>4.440632089972496E-2</v>
+        <v>0.91663557291030884</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -4250,24 +4316,24 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="B220">
-        <v>0.13919241726398471</v>
+        <v>0.92340928316116333</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B221">
-        <v>0.92769032716751099</v>
+        <v>0.92569303512573242</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4278,55 +4344,55 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="B222">
-        <v>2.1703669801354412E-2</v>
+        <v>0.93201327323913574</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="B223">
-        <v>0.64332413673400879</v>
+        <v>0.93910276889801025</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B224">
-        <v>8.0491453409194946E-2</v>
+        <v>0.9420282244682312</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="B225">
-        <v>3.3723108470439911E-2</v>
+        <v>0.94265007972717285</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -4334,41 +4400,41 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="B226">
-        <v>0.72580176591873169</v>
+        <v>0.955638587474823</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B227">
-        <v>0.53762680292129517</v>
+        <v>0.96626895666122437</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="B228">
-        <v>8.1942684948444366E-2</v>
+        <v>0.98183238506317139</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -4376,13 +4442,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B229">
-        <v>0.2369476705789566</v>
+        <v>0.98310971260070801</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4390,55 +4456,55 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="B230">
-        <v>1.687870733439922E-2</v>
+        <v>0.99482792615890503</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="B231">
-        <v>1.704286597669125E-2</v>
+        <v>0.99571913480758667</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B232">
-        <v>0.78121685981750488</v>
+        <v>0.99622619152069092</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="B233">
-        <v>1.9837077707052231E-2</v>
+        <v>0.99640524387359619</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -4446,13 +4512,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B234">
-        <v>0.13461986184120181</v>
+        <v>0.99641799926757813</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -4460,52 +4526,52 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="B235">
-        <v>0.61606460809707642</v>
+        <v>0.99741518497467041</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="B236">
-        <v>5.7253163307905197E-2</v>
+        <v>0.9980359673500061</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B237">
-        <v>0.31408730149269098</v>
+        <v>0.99814140796661377</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B238">
-        <v>0.96315187215805054</v>
+        <v>0.99818265438079834</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4516,55 +4582,55 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B239">
-        <v>4.2418718338012702E-2</v>
+        <v>0.99835240840911865</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="B240">
-        <v>0.59316408634185791</v>
+        <v>0.99838423728942871</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B241">
-        <v>0.16665166616439819</v>
+        <v>0.9986078143119812</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="B242">
-        <v>0.42308467626571661</v>
+        <v>0.99886202812194824</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -4572,55 +4638,55 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="B243">
-        <v>0.26078847050666809</v>
+        <v>0.99895453453063965</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B244">
-        <v>1.8034836277365681E-2</v>
+        <v>0.99910825490951538</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="B245">
-        <v>4.4379476457834244E-3</v>
+        <v>0.99912923574447632</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="B246">
-        <v>0.18592584133148191</v>
+        <v>0.9992031455039978</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -4628,41 +4694,41 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B247">
-        <v>0.25029864907264709</v>
+        <v>0.9993140697479248</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="B248">
-        <v>1.183000952005386E-2</v>
+        <v>0.99944525957107544</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B249">
-        <v>0.29100564122200012</v>
+        <v>0.99950683116912842</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -4670,66 +4736,66 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="B250">
-        <v>0.7408263087272644</v>
+        <v>0.99958115816116333</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B251">
-        <v>4.3489839881658547E-2</v>
+        <v>0.99961251020431519</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="B252">
-        <v>0.14398263394832611</v>
+        <v>0.99965584278106689</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="B253">
-        <v>0.23991554975509641</v>
+        <v>0.99966418743133545</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="B254">
-        <v>0.97465533018112183</v>
+        <v>0.99969768524169922</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -4740,27 +4806,27 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="B255">
-        <v>0.9749104380607605</v>
+        <v>0.99975806474685669</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="B256">
-        <v>0.31583049893379211</v>
+        <v>0.99982017278671265</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -4768,10 +4834,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="B257">
-        <v>0.51159936189651489</v>
+        <v>0.99983847141265869</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -4780,8 +4846,320 @@
         <v>0</v>
       </c>
     </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>141</v>
+      </c>
+      <c r="B258">
+        <v>0.9998549222946167</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>127</v>
+      </c>
+      <c r="B259">
+        <v>0.9999232292175293</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>185</v>
+      </c>
+      <c r="B260">
+        <v>0.99995017051696777</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>125</v>
+      </c>
+      <c r="B261">
+        <v>0.99995231628417969</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>184</v>
+      </c>
+      <c r="B262">
+        <v>0.99996829032897949</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>97</v>
+      </c>
+      <c r="B263">
+        <v>0.99997794628143311</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>158</v>
+      </c>
+      <c r="B264">
+        <v>0.99997949600219727</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>87</v>
+      </c>
+      <c r="B265">
+        <v>0.99998080730438232</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>226</v>
+      </c>
+      <c r="B266">
+        <v>0.9999845027923584</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>281</v>
+      </c>
+      <c r="B267">
+        <v>0.9999847412109375</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>111</v>
+      </c>
+      <c r="B268">
+        <v>0.99998712539672852</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>215</v>
+      </c>
+      <c r="B269">
+        <v>0.99998974800109863</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>162</v>
+      </c>
+      <c r="B270">
+        <v>0.99999046325683594</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>245</v>
+      </c>
+      <c r="B271">
+        <v>0.9999922513961792</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>241</v>
+      </c>
+      <c r="B272">
+        <v>0.99999523162841797</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273">
+        <v>0.99999606609344482</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>29</v>
+      </c>
+      <c r="B274">
+        <v>0.99999654293060303</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>113</v>
+      </c>
+      <c r="B275">
+        <v>0.99999809265136719</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276">
+        <v>0.99999833106994629</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>186</v>
+      </c>
+      <c r="B277">
+        <v>0.99999868869781494</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>267</v>
+      </c>
+      <c r="B278">
+        <v>0.99999880790710449</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>85</v>
+      </c>
+      <c r="B279">
+        <v>0.99999964237213135</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D279">
+    <sortCondition ref="B1:B279"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>